--- a/database/data_to_add/2020_02_18/Cable_1923_tbl4b.xlsx
+++ b/database/data_to_add/2020_02_18/Cable_1923_tbl4b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\2020_02_18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE938A9F-9B9E-4066-AC05-35A86F964824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827489E4-38F9-4CAF-B7B0-71A47BF5064B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="3252" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="71">
   <si>
     <t>site_name</t>
   </si>
@@ -581,18 +581,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="17" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +756,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>70</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -1113,7 +1113,7 @@
       <c r="BA4" s="3"/>
       <c r="BB4" s="3"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>70</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="BA5" s="3"/>
       <c r="BB5" s="3"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="BA9" s="3"/>
       <c r="BB9" s="3"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1694,46 +1694,11 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="2">
-        <v>31</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="2">
-        <v>24</v>
-      </c>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="2">
-        <v>39</v>
-      </c>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="L11" s="5"/>
@@ -1754,28 +1719,6 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
